--- a/src/test/resources/Users-Data.xlsx
+++ b/src/test/resources/Users-Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Valid-Users" sheetId="1" r:id="rId1"/>
     <sheet name="Invalid-Users" sheetId="2" r:id="rId2"/>
     <sheet name="Register-Account" sheetId="3" r:id="rId3"/>
+    <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Product-Name</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Mac</t>
   </si>
 </sst>
 </file>
@@ -495,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -581,4 +591,34 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>